--- a/TestQuizMaker.xlsx
+++ b/TestQuizMaker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LVU06382/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LVU06382/Documents/GitHub/quizMaker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D0AC29-0817-1544-8A01-E89D865196A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5382B3B-C50B-844D-B8C7-4399B420DB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="21840" windowHeight="14220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13460" yWindow="500" windowWidth="15340" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>21RxTH3Ry0K591_2Lzll3hPmEYw0H4pKg_wtbcxp4hlUMjRBOEpVN1dOV1FPN002OVlGR0IzM0hTNC4u</t>
   </si>
@@ -51,21 +51,6 @@
     <t>{7e46a878-2b6c-4c08-81a5-ca7c4dee5cd2}</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Start time</t>
-  </si>
-  <si>
-    <t>Completion time</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>List the question here</t>
   </si>
   <si>
@@ -84,52 +69,55 @@
     <t>Answer rationale, or where you can find the answer/explanation</t>
   </si>
   <si>
-    <t>anonymous</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Correct answer</t>
-  </si>
-  <si>
-    <t>wrong answer 1</t>
-  </si>
-  <si>
-    <t>wrong answer 2, asdpaksd</t>
-  </si>
-  <si>
-    <t>wrong answer 3</t>
-  </si>
-  <si>
-    <t>lecture 4, khan academy, amboss, bnb</t>
-  </si>
-  <si>
-    <t>asdffs</t>
-  </si>
-  <si>
-    <t>wadf;k./ads..,,sdf.,asdf</t>
-  </si>
-  <si>
-    <t>SDF.,.ADS./F///.....ADF,,,../ASDF</t>
-  </si>
-  <si>
-    <t>---asdflksdfad,,....sadf</t>
-  </si>
-  <si>
-    <t>afdpjfklsdjlksfd,,...asdf</t>
-  </si>
-  <si>
-    <t>AS;DLFKJSLKDF,,,../---S;DFLS</t>
+    <t>Membranous nephropathy presents with which of the following on histology?</t>
+  </si>
+  <si>
+    <t>subepithelial deposits</t>
+  </si>
+  <si>
+    <t>"Spikes and domes" appearance on silver stain is pathognomonic for membranous nephropathy</t>
+  </si>
+  <si>
+    <t>podocyte effacement</t>
+  </si>
+  <si>
+    <t>apple-green birefringence</t>
+  </si>
+  <si>
+    <t>subepithelial "humps"</t>
+  </si>
+  <si>
+    <t>Minimal change disease is most associated with which demographic?</t>
+  </si>
+  <si>
+    <t>smokers</t>
+  </si>
+  <si>
+    <t>older adults</t>
+  </si>
+  <si>
+    <t>African Americans and Hispanic individuals</t>
+  </si>
+  <si>
+    <t>children</t>
+  </si>
+  <si>
+    <t>MCD is the most common nephropathy in children</t>
+  </si>
+  <si>
+    <t>Amyloidosis presents with what on Congo red stain?</t>
+  </si>
+  <si>
+    <t>fibrils of different sizes, average 7nm</t>
+  </si>
+  <si>
+    <t>Congo red stain of amyloidosis samples show salmon colored deposits, whereas IM, EM, and IF would more likely show fibrils</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -162,13 +150,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="7">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -190,21 +178,6 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -219,14 +192,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D0F1BCB-C766-4F84-85FB-DDCB9CBD01D4}" name="Table1" displayName="Table1" ref="A1:K3" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="A1:K3" xr:uid="{1D0F1BCB-C766-4F84-85FB-DDCB9CBD01D4}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2364BD76-686A-4B1B-B26D-2C3FC0A43499}" name="ID" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{FA3FBF04-7BF2-4F52-9C27-C3CE39B40C1A}" name="Start time" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{C836FE04-5055-4495-8D20-2FD0D3BDD451}" name="Completion time" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{666EAA3A-8915-43BB-A58A-A9EBB3B7E285}" name="Email" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{75FE1179-22D4-406E-A239-57FCC6AD7FB7}" name="Name" dataDxfId="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D0F1BCB-C766-4F84-85FB-DDCB9CBD01D4}" name="Table1" displayName="Table1" ref="A1:F4" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F4" xr:uid="{1D0F1BCB-C766-4F84-85FB-DDCB9CBD01D4}"/>
+  <tableColumns count="6">
     <tableColumn id="6" xr3:uid="{DE0E8014-09EE-4630-8583-14CACA77E6E6}" name="List the question here" dataDxfId="5"/>
     <tableColumn id="7" xr3:uid="{2690A3C9-6D4F-4444-B630-C2C7EE61A938}" name="Answer A (correct answer here)" dataDxfId="4"/>
     <tableColumn id="8" xr3:uid="{9BB2A55E-E0DF-4872-A8E1-B5D565319E4D}" name="Answer B" dataDxfId="3"/>
@@ -565,25 +533,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E749F397-1A19-4C34-B621-04F143589BBF}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="11" width="28.5" customWidth="1"/>
+    <col min="1" max="6" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
@@ -595,213 +563,72 @@
       <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>44924.15425925926</v>
-      </c>
-      <c r="C2" s="2">
-        <v>44924.154629629629</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>44924.154687499999</v>
-      </c>
-      <c r="C3" s="2">
-        <v>44924.155046296299</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="F4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>44924.15425925926</v>
-      </c>
-      <c r="C4" s="2">
-        <v>44924.154629629629</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2">
-        <v>44924.154687499999</v>
-      </c>
-      <c r="C5" s="2">
-        <v>44924.155046296299</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2">
-        <v>44924.15425925926</v>
-      </c>
-      <c r="C6" s="2">
-        <v>44924.154629629629</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2">
-        <v>44924.154687499999</v>
-      </c>
-      <c r="C7" s="2">
-        <v>44924.155046296299</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" t="s">
-        <v>26</v>
-      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
